--- a/PageObjectModel/src/TestData/TestData.xlsx
+++ b/PageObjectModel/src/TestData/TestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t xml:space="preserve">Test Case Name</t>
   </si>
@@ -282,7 +282,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PageObjectModel/src/TestData/TestData.xlsx
+++ b/PageObjectModel/src/TestData/TestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t xml:space="preserve">Test Case Name</t>
   </si>

--- a/PageObjectModel/src/TestData/TestData.xlsx
+++ b/PageObjectModel/src/TestData/TestData.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" date1904="false" showObjects="all"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId2" sheetId="1" state="visible"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterate="false" iterateCount="100" iterateDelta="0.001" refMode="A1"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t xml:space="preserve">Test Case Name</t>
   </si>
@@ -31,22 +31,19 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">Results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache_POI_TC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testuser_1</t>
+    <t xml:space="preserve">DataProviderWithExcel_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestUser_1</t>
   </si>
   <si>
     <t xml:space="preserve">Test@123</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Pass1</t>
+    <t xml:space="preserve">DataProviderWithExcel_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestUser_2</t>
   </si>
 </sst>
 </file>
@@ -96,7 +93,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,16 +106,22 @@
         <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
       <right style="hair"/>
       <top style="hair"/>
@@ -127,55 +130,59 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+  <cellXfs count="5">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -245,19 +252,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D8" activeCellId="0" pane="topLeft" sqref="D8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="16.53" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="1025" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.69"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -267,31 +276,38 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="Test@123" r:id="rId1" ref="C2"/>
+    <hyperlink ref="C2" r:id="rId1" display="Test@123"/>
+    <hyperlink ref="C3" r:id="rId2" display="Test@123"/>
   </hyperlinks>
-  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12Page &amp;P</oddFooter>
